--- a/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Protection.xlsx
+++ b/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Protection.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB365CF8-E9AB-4D5C-AB90-6C4DCE27C93E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259036B8-3A75-43D4-8E03-1BA1E66291F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2016" yWindow="1788" windowWidth="19968" windowHeight="10356" xr2:uid="{62EC979D-6B47-481E-ACAC-68241779427F}"/>
+    <workbookView xWindow="6564" yWindow="540" windowWidth="15612" windowHeight="10668" xr2:uid="{62EC979D-6B47-481E-ACAC-68241779427F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$186</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="218">
   <si>
     <t>Assessment Unit #</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Reach #</t>
   </si>
   <si>
-    <t>Priority Type</t>
-  </si>
-  <si>
     <t>Okanogan-Davis Canyon</t>
   </si>
   <si>
@@ -685,9 +682,6 @@
   </si>
   <si>
     <t>ReachName</t>
-  </si>
-  <si>
-    <t>Restoration</t>
   </si>
   <si>
     <t>Okanogan 16-49</t>
@@ -1063,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D71F96B-D1E4-418B-873A-4FEB29D71F3F}">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1070,7 @@
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,30 +1081,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>-2.8980414375155306E-2</v>
@@ -1118,22 +1109,19 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>-5.6843418860808015E-13</v>
@@ -1141,22 +1129,19 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>-0.10587445190856215</v>
@@ -1164,22 +1149,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>-5.6843418860808015E-13</v>
@@ -1187,22 +1169,19 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>-2.2146506940021027</v>
@@ -1210,22 +1189,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>251</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>-5.6843418860808015E-13</v>
@@ -1233,22 +1209,19 @@
       <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8">
         <v>-5.6843418860808015E-13</v>
@@ -1256,22 +1229,19 @@
       <c r="F8">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>-0.47673674834129542</v>
@@ -1279,22 +1249,19 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10">
         <v>-5.6843418860808015E-13</v>
@@ -1302,22 +1269,19 @@
       <c r="F10">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11">
         <v>-1.131603307684145</v>
@@ -1325,22 +1289,19 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12">
         <v>-5.6843418860808015E-13</v>
@@ -1348,22 +1309,19 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13">
         <v>5.3219998244003364E-2</v>
@@ -1371,22 +1329,19 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14">
         <v>-2.8252774373527245E-3</v>
@@ -1394,22 +1349,19 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15">
         <v>-5.6843418860808015E-13</v>
@@ -1417,22 +1369,19 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16">
         <v>262</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16">
         <v>-0.21928049818188811</v>
@@ -1440,22 +1389,19 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <v>261</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17">
         <v>-5.6843418860808015E-13</v>
@@ -1463,22 +1409,19 @@
       <c r="F17">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>242</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18">
         <v>-2.0501266969312724</v>
@@ -1486,22 +1429,19 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>-5.6843418860808015E-13</v>
@@ -1509,22 +1449,19 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>-0.3783569824490769</v>
@@ -1532,22 +1469,19 @@
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>-5.6843418860808015E-13</v>
@@ -1555,22 +1489,19 @@
       <c r="F21">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>-5.6843418860808015E-13</v>
@@ -1578,22 +1509,19 @@
       <c r="F22">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>-5.6843418860808015E-13</v>
@@ -1601,22 +1529,19 @@
       <c r="F23">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>-5.6843418860808015E-13</v>
@@ -1624,22 +1549,19 @@
       <c r="F24">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>-1.1089565008875297</v>
@@ -1647,22 +1569,19 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>-5.6843418860808015E-13</v>
@@ -1670,22 +1589,19 @@
       <c r="F26">
         <v>30</v>
       </c>
-      <c r="G26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>-5.6843418860808015E-13</v>
@@ -1693,22 +1609,19 @@
       <c r="F27">
         <v>30</v>
       </c>
-      <c r="G27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28">
         <v>-1.3465057819142885</v>
@@ -1716,22 +1629,19 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>-5.6843418860808015E-13</v>
@@ -1739,22 +1649,19 @@
       <c r="F29">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>-5.6843418860808015E-13</v>
@@ -1762,22 +1669,19 @@
       <c r="F30">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>-5.6843418860808015E-13</v>
@@ -1785,22 +1689,19 @@
       <c r="F31">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>-0.34218771191154929</v>
@@ -1808,22 +1709,19 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>-1.0847812450265337E-4</v>
@@ -1831,22 +1729,19 @@
       <c r="F33">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>-5.6843418860808015E-13</v>
@@ -1854,22 +1749,19 @@
       <c r="F34">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>-5.6843418860808015E-13</v>
@@ -1877,22 +1769,19 @@
       <c r="F35">
         <v>30</v>
       </c>
-      <c r="G35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36">
         <v>-5.6843418860808015E-13</v>
@@ -1900,22 +1789,19 @@
       <c r="F36">
         <v>30</v>
       </c>
-      <c r="G36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>208</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>-5.6843418860808015E-13</v>
@@ -1923,22 +1809,19 @@
       <c r="F37">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38">
         <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>-5.6843418860808015E-13</v>
@@ -1946,22 +1829,19 @@
       <c r="F38">
         <v>30</v>
       </c>
-      <c r="G38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>-1.2790803124289596E-3</v>
@@ -1969,22 +1849,19 @@
       <c r="F39">
         <v>6</v>
       </c>
-      <c r="G39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>-5.6843418860808015E-13</v>
@@ -1992,22 +1869,19 @@
       <c r="F40">
         <v>30</v>
       </c>
-      <c r="G40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41">
         <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>-4.3637504199409705E-3</v>
@@ -2015,22 +1889,19 @@
       <c r="F41">
         <v>5</v>
       </c>
-      <c r="G41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42">
         <v>-5.6843418860808015E-13</v>
@@ -2038,22 +1909,19 @@
       <c r="F42">
         <v>30</v>
       </c>
-      <c r="G42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>-5.6843418860808015E-13</v>
@@ -2061,22 +1929,19 @@
       <c r="F43">
         <v>30</v>
       </c>
-      <c r="G43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>-5.1693725941959201E-4</v>
@@ -2084,22 +1949,19 @@
       <c r="F44">
         <v>8</v>
       </c>
-      <c r="G44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45">
         <v>-5.6843418860808015E-13</v>
@@ -2107,22 +1969,19 @@
       <c r="F45">
         <v>30</v>
       </c>
-      <c r="G45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>-5.6843418860808015E-13</v>
@@ -2130,22 +1989,19 @@
       <c r="F46">
         <v>30</v>
       </c>
-      <c r="G46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47">
         <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47">
         <v>-5.6843418860808015E-13</v>
@@ -2153,22 +2009,19 @@
       <c r="F47">
         <v>30</v>
       </c>
-      <c r="G47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>-8.3429169626469957E-4</v>
@@ -2176,22 +2029,19 @@
       <c r="F48">
         <v>7</v>
       </c>
-      <c r="G48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49">
         <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49">
         <v>-5.6843418860808015E-13</v>
@@ -2199,22 +2049,19 @@
       <c r="F49">
         <v>30</v>
       </c>
-      <c r="G49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>-2.2898558984408055</v>
@@ -2222,22 +2069,19 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>-5.6843418860808015E-13</v>
@@ -2245,22 +2089,19 @@
       <c r="F51">
         <v>7</v>
       </c>
-      <c r="G51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>-5.6843418860808015E-13</v>
@@ -2268,22 +2109,19 @@
       <c r="F52">
         <v>7</v>
       </c>
-      <c r="G52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>-0.14251453159545235</v>
@@ -2291,22 +2129,19 @@
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>-5.6843418860808015E-13</v>
@@ -2314,22 +2149,19 @@
       <c r="F54">
         <v>7</v>
       </c>
-      <c r="G54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>-5.6843418860808015E-13</v>
@@ -2337,22 +2169,19 @@
       <c r="F55">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56">
         <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E56">
         <v>-1.5609409153786373</v>
@@ -2360,22 +2189,19 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57">
         <v>307</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E57">
         <v>3.360662169048851</v>
@@ -2383,22 +2209,19 @@
       <c r="F57">
         <v>6</v>
       </c>
-      <c r="G57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>308</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E58">
         <v>-6.072589899815739E-3</v>
@@ -2406,22 +2229,19 @@
       <c r="F58">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C59">
         <v>309</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59">
         <v>0.2065840790384641</v>
@@ -2429,22 +2249,19 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="G59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60">
         <v>310</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E60">
         <v>0.45163022678224252</v>
@@ -2452,22 +2269,19 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61">
         <v>312</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E61">
         <v>-0.85193817374027958</v>
@@ -2475,22 +2289,19 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C62">
         <v>311</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E62">
         <v>-5.6843418860808015E-13</v>
@@ -2498,22 +2309,19 @@
       <c r="F62">
         <v>3</v>
       </c>
-      <c r="G62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63">
         <v>314</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63">
         <v>5.9676166364397432E-4</v>
@@ -2521,22 +2329,19 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="G63" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64">
         <v>320</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E64">
         <v>1.0457748618364349E-3</v>
@@ -2544,22 +2349,19 @@
       <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C65">
         <v>321</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>1.4866051631088339E-3</v>
@@ -2567,22 +2369,19 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>-0.67746987324574093</v>
@@ -2590,22 +2389,19 @@
       <c r="F66">
         <v>3</v>
       </c>
-      <c r="G66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>-0.94336665788034679</v>
@@ -2613,22 +2409,19 @@
       <c r="F67">
         <v>3</v>
       </c>
-      <c r="G67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68">
         <v>-0.1084052162188982</v>
@@ -2636,22 +2429,19 @@
       <c r="F68">
         <v>4</v>
       </c>
-      <c r="G68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>0.35206318739045628</v>
@@ -2659,22 +2449,19 @@
       <c r="F69">
         <v>6</v>
       </c>
-      <c r="G69" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>127</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70">
         <v>0.36428053945678585</v>
@@ -2682,22 +2469,19 @@
       <c r="F70">
         <v>7</v>
       </c>
-      <c r="G70" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>-2.069492183223133</v>
@@ -2705,22 +2489,19 @@
       <c r="F71">
         <v>2</v>
       </c>
-      <c r="G71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>129</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72">
         <v>-6.7024109336723541</v>
@@ -2728,22 +2509,19 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73">
         <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E73">
         <v>2.2019945202068811</v>
@@ -2751,22 +2529,19 @@
       <c r="F73">
         <v>8</v>
       </c>
-      <c r="G73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>-0.70883888306690324</v>
@@ -2774,22 +2549,19 @@
       <c r="F74">
         <v>3</v>
       </c>
-      <c r="G74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E75">
         <v>6.4280144887163715E-2</v>
@@ -2797,22 +2569,19 @@
       <c r="F75">
         <v>6</v>
       </c>
-      <c r="G75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76">
         <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76">
         <v>-2.779278514506359</v>
@@ -2820,22 +2589,19 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77">
         <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77">
         <v>-0.69756942119641963</v>
@@ -2843,22 +2609,19 @@
       <c r="F77">
         <v>2</v>
       </c>
-      <c r="G77" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78">
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E78">
         <v>-1.2586741087919222</v>
@@ -2866,22 +2629,19 @@
       <c r="F78">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79">
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E79">
         <v>-5.0257918753231934E-2</v>
@@ -2889,22 +2649,19 @@
       <c r="F79">
         <v>4</v>
       </c>
-      <c r="G79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80">
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80">
         <v>4.7859073126801377E-2</v>
@@ -2912,22 +2669,19 @@
       <c r="F80">
         <v>5</v>
       </c>
-      <c r="G80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81">
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E81">
         <v>0.11083748147297001</v>
@@ -2935,22 +2689,19 @@
       <c r="F81">
         <v>7</v>
       </c>
-      <c r="G81" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82">
         <v>221</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82">
         <v>0.25308654425271015</v>
@@ -2958,22 +2709,19 @@
       <c r="F82">
         <v>2</v>
       </c>
-      <c r="G82" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83">
         <v>222</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83">
         <v>-4.8711255978523695</v>
@@ -2981,22 +2729,19 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84">
         <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84">
         <v>0.49488475554858269</v>
@@ -3004,22 +2749,19 @@
       <c r="F84">
         <v>7</v>
       </c>
-      <c r="G84" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C85">
         <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85">
         <v>-4.8693433648281825E-2</v>
@@ -3027,22 +2769,19 @@
       <c r="F85">
         <v>5</v>
       </c>
-      <c r="G85" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86">
         <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86">
         <v>-3.9252721762525766</v>
@@ -3050,22 +2789,19 @@
       <c r="F86">
         <v>2</v>
       </c>
-      <c r="G86" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87">
         <v>230</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87">
         <v>-0.73943439168095892</v>
@@ -3073,22 +2809,19 @@
       <c r="F87">
         <v>4</v>
       </c>
-      <c r="G87" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>-0.70536431187838389</v>
@@ -3096,22 +2829,19 @@
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C89">
         <v>231</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E89">
         <v>-7.1815274259012085</v>
@@ -3119,22 +2849,19 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C90">
         <v>238</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E90">
         <v>0.51267167132277791</v>
@@ -3142,22 +2869,19 @@
       <c r="F90">
         <v>8</v>
       </c>
-      <c r="G90" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91">
         <v>239</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91">
         <v>-2.3034101300747238</v>
@@ -3165,22 +2889,19 @@
       <c r="F91">
         <v>3</v>
       </c>
-      <c r="G91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92">
         <v>244</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E92">
         <v>-1.0803438473431015E-2</v>
@@ -3188,22 +2909,19 @@
       <c r="F92">
         <v>6</v>
       </c>
-      <c r="G92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>248</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E93">
         <v>2.9532130232951204E-2</v>
@@ -3211,22 +2929,19 @@
       <c r="F93">
         <v>6</v>
       </c>
-      <c r="G93" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94">
         <v>249</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E94">
         <v>0.91356193476883618</v>
@@ -3234,22 +2949,19 @@
       <c r="F94">
         <v>9</v>
       </c>
-      <c r="G94" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E95">
         <v>2.0646220135631665E-3</v>
@@ -3257,22 +2969,19 @@
       <c r="F95">
         <v>5</v>
       </c>
-      <c r="G95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <v>275</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96">
         <v>0.50054163918423455</v>
@@ -3280,22 +2989,19 @@
       <c r="F96">
         <v>8</v>
       </c>
-      <c r="G96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97">
         <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E97">
         <v>-1.0821280386318222</v>
@@ -3303,22 +3009,19 @@
       <c r="F97">
         <v>4</v>
       </c>
-      <c r="G97" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98">
         <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E98">
         <v>-5.1992506252128123</v>
@@ -3326,22 +3029,19 @@
       <c r="F98">
         <v>2</v>
       </c>
-      <c r="G98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>-0.55475458500416153</v>
@@ -3349,22 +3049,19 @@
       <c r="F99">
         <v>4</v>
       </c>
-      <c r="G99" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C100">
         <v>285</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E100">
         <v>-3.5174137075583758</v>
@@ -3372,22 +3069,19 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101">
         <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E101">
         <v>0.21539161649445759</v>
@@ -3395,22 +3089,19 @@
       <c r="F101">
         <v>7</v>
       </c>
-      <c r="G101" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>287</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E102">
         <v>-6.1069782934994805</v>
@@ -3418,22 +3109,19 @@
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103">
         <v>295</v>
       </c>
       <c r="D103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E103">
         <v>-0.12163443212148195</v>
@@ -3441,22 +3129,19 @@
       <c r="F103">
         <v>3</v>
       </c>
-      <c r="G103" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C104">
         <v>296</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E104">
         <v>-1.5928656677552908</v>
@@ -3464,22 +3149,19 @@
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C105">
         <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105">
         <v>-0.99717579207913332</v>
@@ -3487,22 +3169,19 @@
       <c r="F105">
         <v>2</v>
       </c>
-      <c r="G105" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106">
         <v>305</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E106">
         <v>0.25104427704536647</v>
@@ -3510,22 +3189,19 @@
       <c r="F106">
         <v>3</v>
       </c>
-      <c r="G106" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107">
         <v>-0.52776739192643163</v>
@@ -3533,22 +3209,19 @@
       <c r="F107">
         <v>5</v>
       </c>
-      <c r="G107" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>-0.51602389129214998</v>
@@ -3556,22 +3229,19 @@
       <c r="F108">
         <v>6</v>
       </c>
-      <c r="G108" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109">
         <v>-0.50600199905341015</v>
@@ -3579,22 +3249,19 @@
       <c r="F109">
         <v>7</v>
       </c>
-      <c r="G109" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110">
         <v>-0.49611160367919638</v>
@@ -3602,22 +3269,19 @@
       <c r="F110">
         <v>8</v>
       </c>
-      <c r="G110" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E111">
         <v>-1.4103179213634576E-2</v>
@@ -3625,22 +3289,19 @@
       <c r="F111">
         <v>5</v>
       </c>
-      <c r="G111" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <v>-5.6843418860808015E-13</v>
@@ -3648,22 +3309,19 @@
       <c r="F112">
         <v>9</v>
       </c>
-      <c r="G112" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C113">
         <v>297</v>
       </c>
       <c r="D113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E113">
         <v>-4.5336153196615214E-2</v>
@@ -3671,22 +3329,19 @@
       <c r="F113">
         <v>4</v>
       </c>
-      <c r="G113" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114">
         <v>150</v>
       </c>
       <c r="D114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E114">
         <v>-1.5152461821179486</v>
@@ -3694,22 +3349,19 @@
       <c r="F114">
         <v>2</v>
       </c>
-      <c r="G114" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115">
         <v>151</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E115">
         <v>-5.6843418860808015E-13</v>
@@ -3717,22 +3369,19 @@
       <c r="F115">
         <v>6</v>
       </c>
-      <c r="G115" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116">
         <v>162</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E116">
         <v>-0.44877230285862879</v>
@@ -3740,22 +3389,19 @@
       <c r="F116">
         <v>6</v>
       </c>
-      <c r="G116" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C117">
         <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>-2.1836271471798909</v>
@@ -3763,22 +3409,19 @@
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="G117" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C118">
         <v>163</v>
       </c>
       <c r="D118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E118">
         <v>-5.6843418860808015E-13</v>
@@ -3786,22 +3429,19 @@
       <c r="F118">
         <v>9</v>
       </c>
-      <c r="G118" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119">
         <v>168</v>
       </c>
       <c r="D119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E119">
         <v>0.16669438898560429</v>
@@ -3809,22 +3449,19 @@
       <c r="F119">
         <v>7</v>
       </c>
-      <c r="G119" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C120">
         <v>171</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E120">
         <v>-0.64668010673392473</v>
@@ -3832,22 +3469,19 @@
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="G120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121">
         <v>172</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E121">
         <v>8.8647295811483673E-3</v>
@@ -3855,22 +3489,19 @@
       <c r="F121">
         <v>5</v>
       </c>
-      <c r="G121" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C122">
         <v>173</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E122">
         <v>-1.4188500968845119</v>
@@ -3878,22 +3509,19 @@
       <c r="F122">
         <v>1</v>
       </c>
-      <c r="G122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C123">
         <v>177</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E123">
         <v>8.3935935286604035E-2</v>
@@ -3901,22 +3529,19 @@
       <c r="F123">
         <v>6</v>
       </c>
-      <c r="G123" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C124">
         <v>176</v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E124">
         <v>-5.6843418860808015E-13</v>
@@ -3924,22 +3549,19 @@
       <c r="F124">
         <v>4</v>
       </c>
-      <c r="G124" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C125">
         <v>178</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E125">
         <v>-0.19419184366586251</v>
@@ -3947,22 +3569,19 @@
       <c r="F125">
         <v>2</v>
       </c>
-      <c r="G125" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126">
         <v>153</v>
       </c>
       <c r="D126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126">
         <v>-5.6260079622600188</v>
@@ -3970,22 +3589,19 @@
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127">
         <v>152</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127">
         <v>-5.6843418860808015E-13</v>
@@ -3993,22 +3609,19 @@
       <c r="F127">
         <v>6</v>
       </c>
-      <c r="G127" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128">
         <v>154</v>
       </c>
       <c r="D128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128">
         <v>-1.2891771405693362</v>
@@ -4016,22 +3629,19 @@
       <c r="F128">
         <v>3</v>
       </c>
-      <c r="G128" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129">
         <v>155</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E129">
         <v>-1.0390730181705408</v>
@@ -4039,22 +3649,19 @@
       <c r="F129">
         <v>4</v>
       </c>
-      <c r="G129" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130">
         <v>157</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E130">
         <v>-0.77825086194343385</v>
@@ -4062,22 +3669,19 @@
       <c r="F130">
         <v>2</v>
       </c>
-      <c r="G130" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C131">
         <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E131">
         <v>-5.6843418860808015E-13</v>
@@ -4085,22 +3689,19 @@
       <c r="F131">
         <v>9</v>
       </c>
-      <c r="G131" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C132">
         <v>158</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E132">
         <v>-0.52911995973465764</v>
@@ -4108,22 +3709,19 @@
       <c r="F132">
         <v>4</v>
       </c>
-      <c r="G132" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C133">
         <v>159</v>
       </c>
       <c r="D133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E133">
         <v>-0.14843020410586405</v>
@@ -4131,22 +3729,19 @@
       <c r="F133">
         <v>7</v>
       </c>
-      <c r="G133" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C134">
         <v>160</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E134">
         <v>-0.46878493733350979</v>
@@ -4154,22 +3749,19 @@
       <c r="F134">
         <v>5</v>
       </c>
-      <c r="G134" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C135">
         <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E135">
         <v>-0.68239538371062736</v>
@@ -4177,22 +3769,19 @@
       <c r="F135">
         <v>3</v>
       </c>
-      <c r="G135" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <v>131</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E136">
         <v>-1.302798908104819</v>
@@ -4200,22 +3789,19 @@
       <c r="F136">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137">
         <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E137">
         <v>-3.971369721263045</v>
@@ -4223,22 +3809,19 @@
       <c r="F137">
         <v>8</v>
       </c>
-      <c r="G137" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138">
         <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E138">
         <v>-1.4222123491030061</v>
@@ -4246,22 +3829,19 @@
       <c r="F138">
         <v>10</v>
       </c>
-      <c r="G138" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139">
         <v>143</v>
       </c>
       <c r="D139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E139">
         <v>-20.837552903473238</v>
@@ -4269,22 +3849,19 @@
       <c r="F139">
         <v>3</v>
       </c>
-      <c r="G139" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140">
         <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140">
         <v>-3.1672407817523549</v>
@@ -4292,22 +3869,19 @@
       <c r="F140">
         <v>9</v>
       </c>
-      <c r="G140" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141">
         <v>132</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E141">
         <v>-1.2357716122162969</v>
@@ -4315,22 +3889,19 @@
       <c r="F141">
         <v>12</v>
       </c>
-      <c r="G141" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142">
         <v>133</v>
       </c>
       <c r="D142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E142">
         <v>-0.4053869854164418</v>
@@ -4338,22 +3909,19 @@
       <c r="F142">
         <v>13</v>
       </c>
-      <c r="G142" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143">
         <v>135</v>
       </c>
       <c r="D143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E143">
         <v>-23.559961626964196</v>
@@ -4361,22 +3929,19 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="G143" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C144">
         <v>134</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E144">
         <v>-5.6843418860808015E-13</v>
@@ -4384,22 +3949,19 @@
       <c r="F144">
         <v>14</v>
       </c>
-      <c r="G144" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145">
         <v>136</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E145">
         <v>-5.934336141409176</v>
@@ -4407,22 +3969,19 @@
       <c r="F145">
         <v>6</v>
       </c>
-      <c r="G145" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C146">
         <v>137</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146">
         <v>-7.3194586270356012</v>
@@ -4430,22 +3989,19 @@
       <c r="F146">
         <v>5</v>
       </c>
-      <c r="G146" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147">
         <v>138</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E147">
         <v>-5.8362203252646054</v>
@@ -4453,22 +4009,19 @@
       <c r="F147">
         <v>7</v>
       </c>
-      <c r="G147" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148">
         <v>139</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E148">
         <v>-21.105547590302763</v>
@@ -4476,22 +4029,19 @@
       <c r="F148">
         <v>2</v>
       </c>
-      <c r="G148" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C149">
         <v>140</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E149">
         <v>-9.6862429871384848</v>
@@ -4499,22 +4049,19 @@
       <c r="F149">
         <v>4</v>
       </c>
-      <c r="G149" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>23</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C150">
         <v>289</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E150">
         <v>0.59670570544301427</v>
@@ -4522,22 +4069,19 @@
       <c r="F150">
         <v>6</v>
       </c>
-      <c r="G150" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C151">
         <v>290</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E151">
         <v>-3.9044671174913788</v>
@@ -4545,22 +4089,19 @@
       <c r="F151">
         <v>2</v>
       </c>
-      <c r="G151" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C152">
         <v>291</v>
       </c>
       <c r="D152" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E152">
         <v>-0.9973068180138398</v>
@@ -4568,22 +4109,19 @@
       <c r="F152">
         <v>3</v>
       </c>
-      <c r="G152" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C153">
         <v>292</v>
       </c>
       <c r="D153" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E153">
         <v>0.48081260358446798</v>
@@ -4591,22 +4129,19 @@
       <c r="F153">
         <v>5</v>
       </c>
-      <c r="G153" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C154">
         <v>293</v>
       </c>
       <c r="D154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E154">
         <v>-0.20791313015166679</v>
@@ -4614,22 +4149,19 @@
       <c r="F154">
         <v>4</v>
       </c>
-      <c r="G154" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C155">
         <v>294</v>
       </c>
       <c r="D155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E155">
         <v>-40.379536254576124</v>
@@ -4637,22 +4169,19 @@
       <c r="F155">
         <v>1</v>
       </c>
-      <c r="G155" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>18</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156">
         <v>246</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E156">
         <v>9.1374558002144113E-4</v>
@@ -4660,22 +4189,19 @@
       <c r="F156">
         <v>1</v>
       </c>
-      <c r="G156" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C157">
         <v>166</v>
       </c>
       <c r="D157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E157">
         <v>3.800059113621046E-2</v>
@@ -4683,22 +4209,19 @@
       <c r="F157">
         <v>6</v>
       </c>
-      <c r="G157" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C158">
         <v>167</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E158">
         <v>-0.6174416442340771</v>
@@ -4706,22 +4229,19 @@
       <c r="F158">
         <v>2</v>
       </c>
-      <c r="G158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C159">
         <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E159">
         <v>-5.6843418860808015E-13</v>
@@ -4729,22 +4249,19 @@
       <c r="F159">
         <v>5</v>
       </c>
-      <c r="G159" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C160">
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E160">
         <v>-2.5390765753172673E-2</v>
@@ -4752,22 +4269,19 @@
       <c r="F160">
         <v>3</v>
       </c>
-      <c r="G160" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C161">
         <v>169</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E161">
         <v>-5.6843418860808015E-13</v>
@@ -4775,22 +4289,19 @@
       <c r="F161">
         <v>5</v>
       </c>
-      <c r="G161" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C162">
         <v>302</v>
       </c>
       <c r="D162" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E162">
         <v>0.61717918602016653</v>
@@ -4798,22 +4309,19 @@
       <c r="F162">
         <v>2</v>
       </c>
-      <c r="G162" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>25</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C163">
         <v>303</v>
       </c>
       <c r="D163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E163">
         <v>-3.6497064088636648</v>
@@ -4821,22 +4329,19 @@
       <c r="F163">
         <v>1</v>
       </c>
-      <c r="G163" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C164">
         <v>175</v>
       </c>
       <c r="D164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E164">
         <v>0.61836684274788922</v>
@@ -4844,22 +4349,19 @@
       <c r="F164">
         <v>7</v>
       </c>
-      <c r="G164" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C165">
         <v>174</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E165">
         <v>-5.6843418860808015E-13</v>
@@ -4867,22 +4369,19 @@
       <c r="F165">
         <v>4</v>
       </c>
-      <c r="G165" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C166">
         <v>225</v>
       </c>
       <c r="D166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E166">
         <v>-0.4613944150972884</v>
@@ -4890,22 +4389,19 @@
       <c r="F166">
         <v>1</v>
       </c>
-      <c r="G166" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C167">
         <v>224</v>
       </c>
       <c r="D167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E167">
         <v>-5.6843418860808015E-13</v>
@@ -4913,22 +4409,19 @@
       <c r="F167">
         <v>2</v>
       </c>
-      <c r="G167" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C168">
         <v>181</v>
       </c>
       <c r="D168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E168">
         <v>-0.13638890425352201</v>
@@ -4936,22 +4429,19 @@
       <c r="F168">
         <v>1</v>
       </c>
-      <c r="G168" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C169">
         <v>183</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E169">
         <v>-3.8566253972476261E-2</v>
@@ -4959,22 +4449,19 @@
       <c r="F169">
         <v>2</v>
       </c>
-      <c r="G169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C170">
         <v>182</v>
       </c>
       <c r="D170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E170">
         <v>-5.6843418860808015E-13</v>
@@ -4982,22 +4469,19 @@
       <c r="F170">
         <v>4</v>
       </c>
-      <c r="G170" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C171">
         <v>184</v>
       </c>
       <c r="D171" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E171">
         <v>-2.3908929255981093E-2</v>
@@ -5005,22 +4489,19 @@
       <c r="F171">
         <v>3</v>
       </c>
-      <c r="G171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C172">
         <v>268</v>
       </c>
       <c r="D172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E172">
         <v>-4.1722501009644475E-8</v>
@@ -5028,22 +4509,19 @@
       <c r="F172">
         <v>3</v>
       </c>
-      <c r="G172" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>21</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C173">
         <v>266</v>
       </c>
       <c r="D173" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E173">
         <v>-5.6843418860808015E-13</v>
@@ -5051,22 +4529,19 @@
       <c r="F173">
         <v>9</v>
       </c>
-      <c r="G173" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>21</v>
       </c>
       <c r="B174" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C174">
         <v>267</v>
       </c>
       <c r="D174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E174">
         <v>-5.6843418860808015E-13</v>
@@ -5074,22 +4549,19 @@
       <c r="F174">
         <v>9</v>
       </c>
-      <c r="G174" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C175">
         <v>269</v>
       </c>
       <c r="D175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E175">
         <v>-5.6843418860808015E-13</v>
@@ -5097,22 +4569,19 @@
       <c r="F175">
         <v>9</v>
       </c>
-      <c r="G175" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C176">
         <v>272</v>
       </c>
       <c r="D176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E176">
         <v>-5.8894215726468246E-8</v>
@@ -5120,22 +4589,19 @@
       <c r="F176">
         <v>2</v>
       </c>
-      <c r="G176" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C177">
         <v>270</v>
       </c>
       <c r="D177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E177">
         <v>-5.6843418860808015E-13</v>
@@ -5143,22 +4609,19 @@
       <c r="F177">
         <v>9</v>
       </c>
-      <c r="G177" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178">
         <v>271</v>
       </c>
       <c r="D178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E178">
         <v>-5.6843418860808015E-13</v>
@@ -5166,22 +4629,19 @@
       <c r="F178">
         <v>9</v>
       </c>
-      <c r="G178" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C179">
         <v>273</v>
       </c>
       <c r="D179" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E179">
         <v>-5.6843418860808015E-13</v>
@@ -5189,22 +4649,19 @@
       <c r="F179">
         <v>9</v>
       </c>
-      <c r="G179" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C180">
         <v>274</v>
       </c>
       <c r="D180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E180">
         <v>-3.9682410033492488E-4</v>
@@ -5212,22 +4669,19 @@
       <c r="F180">
         <v>1</v>
       </c>
-      <c r="G180" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181">
         <v>280</v>
       </c>
       <c r="D181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E181">
         <v>-0.21364487361216788</v>
@@ -5235,22 +4689,19 @@
       <c r="F181">
         <v>1</v>
       </c>
-      <c r="G181" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C182">
         <v>279</v>
       </c>
       <c r="D182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E182">
         <v>-5.6843418860808015E-13</v>
@@ -5258,22 +4709,19 @@
       <c r="F182">
         <v>6</v>
       </c>
-      <c r="G182" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183">
         <v>284</v>
       </c>
       <c r="D183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E183">
         <v>-4.6785400702560764E-2</v>
@@ -5281,22 +4729,19 @@
       <c r="F183">
         <v>2</v>
       </c>
-      <c r="G183" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C184">
         <v>281</v>
       </c>
       <c r="D184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E184">
         <v>-5.6843418860808015E-13</v>
@@ -5304,22 +4749,19 @@
       <c r="F184">
         <v>6</v>
       </c>
-      <c r="G184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185">
         <v>282</v>
       </c>
       <c r="D185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E185">
         <v>-5.6843418860808015E-13</v>
@@ -5327,22 +4769,19 @@
       <c r="F185">
         <v>6</v>
       </c>
-      <c r="G185" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C186">
         <v>283</v>
       </c>
       <c r="D186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E186">
         <v>-5.6843418860808015E-13</v>
@@ -5350,16 +4789,9 @@
       <c r="F186">
         <v>6</v>
       </c>
-      <c r="G186" t="s">
-        <v>216</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{A3A422CF-A873-4D6B-A899-BD7B8E26E604}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F186">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F186" xr:uid="{A3A422CF-A873-4D6B-A899-BD7B8E26E604}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Protection.xlsx
+++ b/Data/Okanogan_EDT/Reach_and_Attribute_Rank_Protection.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259036B8-3A75-43D4-8E03-1BA1E66291F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815583A-902F-4BF4-855E-1467100411BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6564" yWindow="540" windowWidth="15612" windowHeight="10668" xr2:uid="{62EC979D-6B47-481E-ACAC-68241779427F}"/>
+    <workbookView xWindow="-18420" yWindow="-13125" windowWidth="27660" windowHeight="12720" xr2:uid="{62EC979D-6B47-481E-ACAC-68241779427F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="231">
   <si>
     <t>Assessment Unit #</t>
   </si>
@@ -691,6 +691,45 @@
   </si>
   <si>
     <t>Okanagan 16-48</t>
+  </si>
+  <si>
+    <t>Assessment_Unit_NO_DS_US</t>
+  </si>
+  <si>
+    <t>Aeneas Creek</t>
+  </si>
+  <si>
+    <t>Bonaparte Creek-Lower</t>
+  </si>
+  <si>
+    <t>Loup Loup Creek-Lower</t>
+  </si>
+  <si>
+    <t>Ninemile Creek</t>
+  </si>
+  <si>
+    <t>Omak Creek-Lower</t>
+  </si>
+  <si>
+    <t>Omak Creek-Middle</t>
+  </si>
+  <si>
+    <t>Omak Creek-Upper</t>
+  </si>
+  <si>
+    <t>Siwash Creek-Lower</t>
+  </si>
+  <si>
+    <t>Tonasket Creek</t>
+  </si>
+  <si>
+    <t>Tunk Creek-Lower</t>
+  </si>
+  <si>
+    <t>Wanacut Creek</t>
+  </si>
+  <si>
+    <t>Wildhorse Spring Creek</t>
   </si>
 </sst>
 </file>
@@ -1057,20 +1096,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D71F96B-D1E4-418B-873A-4FEB29D71F3F}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1129,11 @@
       <c r="F1" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1109,8 +1152,11 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -1129,8 +1175,11 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -1149,8 +1198,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1169,8 +1221,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1189,8 +1244,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1209,8 +1267,11 @@
       <c r="F7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1229,8 +1290,11 @@
       <c r="F8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1249,8 +1313,11 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1269,8 +1336,11 @@
       <c r="F10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1289,8 +1359,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1309,8 +1382,11 @@
       <c r="F12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -1329,8 +1405,11 @@
       <c r="F13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1349,8 +1428,11 @@
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1369,8 +1451,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1389,8 +1474,11 @@
       <c r="F16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1409,8 +1497,11 @@
       <c r="F17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1429,8 +1520,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1449,8 +1543,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1469,8 +1566,11 @@
       <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1489,8 +1589,11 @@
       <c r="F21">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -1509,8 +1612,11 @@
       <c r="F22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1529,8 +1635,11 @@
       <c r="F23">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1549,8 +1658,11 @@
       <c r="F24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1569,8 +1681,11 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1589,8 +1704,11 @@
       <c r="F26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1609,8 +1727,11 @@
       <c r="F27">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1629,8 +1750,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
@@ -1649,8 +1773,11 @@
       <c r="F29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1669,8 +1796,11 @@
       <c r="F30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -1689,8 +1819,11 @@
       <c r="F31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -1709,8 +1842,11 @@
       <c r="F32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -1729,8 +1865,11 @@
       <c r="F33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -1749,8 +1888,11 @@
       <c r="F34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -1769,8 +1911,11 @@
       <c r="F35">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -1789,8 +1934,11 @@
       <c r="F36">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -1809,8 +1957,11 @@
       <c r="F37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1829,8 +1980,11 @@
       <c r="F38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1849,8 +2003,11 @@
       <c r="F39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -1869,8 +2026,11 @@
       <c r="F40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -1889,8 +2049,11 @@
       <c r="F41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -1909,8 +2072,11 @@
       <c r="F42">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -1929,8 +2095,11 @@
       <c r="F43">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -1949,8 +2118,11 @@
       <c r="F44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1969,8 +2141,11 @@
       <c r="F45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -1989,8 +2164,11 @@
       <c r="F46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -2009,8 +2187,11 @@
       <c r="F47">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
@@ -2029,8 +2210,11 @@
       <c r="F48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2049,8 +2233,11 @@
       <c r="F49">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -2069,8 +2256,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2089,8 +2279,11 @@
       <c r="F51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -2109,8 +2302,11 @@
       <c r="F52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2129,8 +2325,11 @@
       <c r="F53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -2149,8 +2348,11 @@
       <c r="F54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2169,8 +2371,11 @@
       <c r="F55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2189,8 +2394,11 @@
       <c r="F56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -2209,8 +2417,11 @@
       <c r="F57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2229,8 +2440,11 @@
       <c r="F58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>26</v>
       </c>
@@ -2249,8 +2463,11 @@
       <c r="F59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>26</v>
       </c>
@@ -2269,8 +2486,11 @@
       <c r="F60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>26</v>
       </c>
@@ -2289,8 +2509,11 @@
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -2309,8 +2532,11 @@
       <c r="F62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28</v>
       </c>
@@ -2329,68 +2555,80 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="E64">
-        <v>1.0457748618364349E-3</v>
+        <v>-0.67746987324574093</v>
       </c>
       <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>1.4866051631088339E-3</v>
+        <v>-0.94336665788034679</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E66">
-        <v>-0.67746987324574093</v>
+        <v>-0.1084052162188982</v>
       </c>
       <c r="F66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2398,19 +2636,22 @@
         <v>13</v>
       </c>
       <c r="C67">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>-0.94336665788034679</v>
+        <v>0.35206318739045628</v>
       </c>
       <c r="F67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2418,19 +2659,22 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>-0.1084052162188982</v>
+        <v>0.36428053945678585</v>
       </c>
       <c r="F68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2438,19 +2682,22 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>0.35206318739045628</v>
+        <v>-2.069492183223133</v>
       </c>
       <c r="F69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2458,59 +2705,68 @@
         <v>13</v>
       </c>
       <c r="C70">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.36428053945678585</v>
+        <v>-6.7024109336723541</v>
       </c>
       <c r="F70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <v>2.2019945202068811</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72">
+        <v>147</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72">
+        <v>-0.70883888306690324</v>
+      </c>
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>128</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71">
-        <v>-2.069492183223133</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72">
-        <v>129</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72">
-        <v>-6.7024109336723541</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2518,19 +2774,22 @@
         <v>44</v>
       </c>
       <c r="C73">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>2.2019945202068811</v>
+        <v>6.4280144887163715E-2</v>
       </c>
       <c r="F73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2538,39 +2797,45 @@
         <v>44</v>
       </c>
       <c r="C74">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E74">
-        <v>-0.70883888306690324</v>
+        <v>-2.779278514506359</v>
       </c>
       <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>44</v>
-      </c>
       <c r="C75">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>6.4280144887163715E-2</v>
+        <v>-0.69756942119641963</v>
       </c>
       <c r="F75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2578,39 +2843,45 @@
         <v>44</v>
       </c>
       <c r="C76">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E76">
-        <v>-2.779278514506359</v>
+        <v>-1.2586741087919222</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C77">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E77">
-        <v>-0.69756942119641963</v>
+        <v>-5.0257918753231934E-2</v>
       </c>
       <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2618,19 +2889,22 @@
         <v>44</v>
       </c>
       <c r="C78">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78">
-        <v>-1.2586741087919222</v>
+        <v>4.7859073126801377E-2</v>
       </c>
       <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2638,99 +2912,114 @@
         <v>44</v>
       </c>
       <c r="C79">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E79">
-        <v>-5.0257918753231934E-2</v>
+        <v>0.11083748147297001</v>
       </c>
       <c r="F79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <v>221</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80">
+        <v>0.25308654425271015</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81">
+        <v>-4.8711255978523695</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82">
+        <v>227</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82">
+        <v>0.49488475554858269</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83">
+        <v>228</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83">
+        <v>-4.8693433648281825E-2</v>
+      </c>
+      <c r="F83">
         <v>5</v>
       </c>
-      <c r="B80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80">
-        <v>188</v>
-      </c>
-      <c r="D80" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80">
-        <v>4.7859073126801377E-2</v>
-      </c>
-      <c r="F80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81">
-        <v>189</v>
-      </c>
-      <c r="D81" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81">
-        <v>0.11083748147297001</v>
-      </c>
-      <c r="F81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82">
-        <v>221</v>
-      </c>
-      <c r="D82" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82">
-        <v>0.25308654425271015</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83">
-        <v>222</v>
-      </c>
-      <c r="D83" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83">
-        <v>-4.8711255978523695</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -2738,19 +3027,22 @@
         <v>128</v>
       </c>
       <c r="C84">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84">
-        <v>0.49488475554858269</v>
+        <v>-3.9252721762525766</v>
       </c>
       <c r="F84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
@@ -2758,39 +3050,45 @@
         <v>128</v>
       </c>
       <c r="C85">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E85">
-        <v>-4.8693433648281825E-2</v>
+        <v>-0.73943439168095892</v>
       </c>
       <c r="F85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>-3.9252721762525766</v>
+        <v>-0.70536431187838389</v>
       </c>
       <c r="F86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -2798,39 +3096,45 @@
         <v>128</v>
       </c>
       <c r="C87">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E87">
-        <v>-0.73943439168095892</v>
+        <v>-7.1815274259012085</v>
       </c>
       <c r="F87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C88">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E88">
-        <v>-0.70536431187838389</v>
+        <v>0.51267167132277791</v>
       </c>
       <c r="F88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -2838,19 +3142,22 @@
         <v>128</v>
       </c>
       <c r="C89">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D89" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E89">
-        <v>-7.1815274259012085</v>
+        <v>-2.3034101300747238</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -2858,59 +3165,68 @@
         <v>128</v>
       </c>
       <c r="C90">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E90">
-        <v>0.51267167132277791</v>
+        <v>-1.0803438473431015E-2</v>
       </c>
       <c r="F90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C91">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E91">
-        <v>-2.3034101300747238</v>
+        <v>2.9532130232951204E-2</v>
       </c>
       <c r="F91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C92">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E92">
-        <v>-1.0803438473431015E-2</v>
+        <v>0.91356193476883618</v>
       </c>
       <c r="F92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
@@ -2918,19 +3234,22 @@
         <v>147</v>
       </c>
       <c r="C93">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E93">
-        <v>2.9532130232951204E-2</v>
+        <v>2.0646220135631665E-3</v>
       </c>
       <c r="F93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>19</v>
       </c>
@@ -2938,19 +3257,22 @@
         <v>147</v>
       </c>
       <c r="C94">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E94">
-        <v>0.91356193476883618</v>
+        <v>0.50054163918423455</v>
       </c>
       <c r="F94">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -2958,19 +3280,22 @@
         <v>147</v>
       </c>
       <c r="C95">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E95">
-        <v>2.0646220135631665E-3</v>
+        <v>-1.0821280386318222</v>
       </c>
       <c r="F95">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -2978,39 +3303,45 @@
         <v>147</v>
       </c>
       <c r="C96">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E96">
-        <v>0.50054163918423455</v>
+        <v>-5.1992506252128123</v>
       </c>
       <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>19</v>
-      </c>
-      <c r="B97" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97">
-        <v>276</v>
-      </c>
-      <c r="D97" t="s">
-        <v>175</v>
-      </c>
       <c r="E97">
-        <v>-1.0821280386318222</v>
+        <v>-0.55475458500416153</v>
       </c>
       <c r="F97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -3018,39 +3349,45 @@
         <v>147</v>
       </c>
       <c r="C98">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E98">
-        <v>-5.1992506252128123</v>
+        <v>-3.5174137075583758</v>
       </c>
       <c r="F98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="C99">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="E99">
-        <v>-0.55475458500416153</v>
+        <v>0.21539161649445759</v>
       </c>
       <c r="F99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>19</v>
       </c>
@@ -3058,59 +3395,68 @@
         <v>147</v>
       </c>
       <c r="C100">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E100">
-        <v>-3.5174137075583758</v>
+        <v>-6.1069782934994805</v>
       </c>
       <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101">
+        <v>295</v>
+      </c>
+      <c r="D101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101">
+        <v>-0.12163443212148195</v>
+      </c>
+      <c r="F101">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>19</v>
-      </c>
-      <c r="B101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C101">
-        <v>286</v>
-      </c>
-      <c r="D101" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101">
-        <v>0.21539161649445759</v>
-      </c>
-      <c r="F101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C102">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D102" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E102">
-        <v>-6.1069782934994805</v>
+        <v>-1.5928656677552908</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>24</v>
       </c>
@@ -3118,99 +3464,114 @@
         <v>194</v>
       </c>
       <c r="C103">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E103">
-        <v>-0.12163443212148195</v>
+        <v>-0.99717579207913332</v>
       </c>
       <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104">
+        <v>305</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104">
+        <v>0.25104427704536647</v>
+      </c>
+      <c r="F104">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>24</v>
-      </c>
-      <c r="B104" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104">
-        <v>296</v>
-      </c>
-      <c r="D104" t="s">
-        <v>196</v>
-      </c>
-      <c r="E104">
-        <v>-1.5928656677552908</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C105">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="E105">
-        <v>-0.99717579207913332</v>
+        <v>1.0457748618364349E-3</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>0.25104427704536647</v>
+        <v>-0.52776739192643163</v>
       </c>
       <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>29</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107">
+        <v>1.4866051631088339E-3</v>
+      </c>
+      <c r="F107">
         <v>1</v>
       </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107">
-        <v>106</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>-0.52776739192643163</v>
-      </c>
-      <c r="F107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3229,8 +3590,11 @@
       <c r="F108">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3249,8 +3613,11 @@
       <c r="F109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3269,8 +3636,11 @@
       <c r="F110">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -3289,8 +3659,11 @@
       <c r="F111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3309,8 +3682,11 @@
       <c r="F112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24</v>
       </c>
@@ -3329,8 +3705,11 @@
       <c r="F113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -3349,8 +3728,11 @@
       <c r="F114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -3369,8 +3751,11 @@
       <c r="F115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>8</v>
       </c>
@@ -3389,8 +3774,11 @@
       <c r="F116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3409,8 +3797,11 @@
       <c r="F117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8</v>
       </c>
@@ -3429,8 +3820,11 @@
       <c r="F118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9</v>
       </c>
@@ -3449,8 +3843,11 @@
       <c r="F119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9</v>
       </c>
@@ -3469,8 +3866,11 @@
       <c r="F120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -3489,8 +3889,11 @@
       <c r="F121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10</v>
       </c>
@@ -3509,8 +3912,11 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10</v>
       </c>
@@ -3529,8 +3935,11 @@
       <c r="F123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10</v>
       </c>
@@ -3549,8 +3958,11 @@
       <c r="F124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>10</v>
       </c>
@@ -3569,8 +3981,11 @@
       <c r="F125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3589,8 +4004,11 @@
       <c r="F126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -3609,8 +4027,11 @@
       <c r="F127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3629,8 +4050,11 @@
       <c r="F128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -3649,8 +4073,11 @@
       <c r="F129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -3669,8 +4096,11 @@
       <c r="F130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -3689,8 +4119,11 @@
       <c r="F131">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8</v>
       </c>
@@ -3709,8 +4142,11 @@
       <c r="F132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3729,8 +4165,11 @@
       <c r="F133">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8</v>
       </c>
@@ -3749,8 +4188,11 @@
       <c r="F134">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -3769,8 +4211,11 @@
       <c r="F135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3789,8 +4234,11 @@
       <c r="F136">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3809,8 +4257,11 @@
       <c r="F137">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3829,8 +4280,11 @@
       <c r="F138">
         <v>10</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3849,8 +4303,11 @@
       <c r="F139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3869,8 +4326,11 @@
       <c r="F140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3889,8 +4349,11 @@
       <c r="F141">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3909,8 +4372,11 @@
       <c r="F142">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3929,8 +4395,11 @@
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3949,8 +4418,11 @@
       <c r="F144">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3969,8 +4441,11 @@
       <c r="F145">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3989,8 +4464,11 @@
       <c r="F146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -4009,8 +4487,11 @@
       <c r="F147">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -4029,8 +4510,11 @@
       <c r="F148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -4049,8 +4533,11 @@
       <c r="F149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>23</v>
       </c>
@@ -4069,8 +4556,11 @@
       <c r="F150">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>23</v>
       </c>
@@ -4089,8 +4579,11 @@
       <c r="F151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>23</v>
       </c>
@@ -4109,8 +4602,11 @@
       <c r="F152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>23</v>
       </c>
@@ -4129,8 +4625,11 @@
       <c r="F153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>23</v>
       </c>
@@ -4149,8 +4648,11 @@
       <c r="F154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>23</v>
       </c>
@@ -4169,8 +4671,11 @@
       <c r="F155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -4189,8 +4694,11 @@
       <c r="F156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>9</v>
       </c>
@@ -4209,8 +4717,11 @@
       <c r="F157">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9</v>
       </c>
@@ -4229,8 +4740,11 @@
       <c r="F158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9</v>
       </c>
@@ -4249,8 +4763,11 @@
       <c r="F159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9</v>
       </c>
@@ -4269,8 +4786,11 @@
       <c r="F160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>9</v>
       </c>
@@ -4289,8 +4809,11 @@
       <c r="F161">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25</v>
       </c>
@@ -4309,8 +4832,11 @@
       <c r="F162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25</v>
       </c>
@@ -4329,8 +4855,11 @@
       <c r="F163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10</v>
       </c>
@@ -4349,8 +4878,11 @@
       <c r="F164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10</v>
       </c>
@@ -4369,8 +4901,11 @@
       <c r="F165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>15</v>
       </c>
@@ -4389,8 +4924,11 @@
       <c r="F166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>15</v>
       </c>
@@ -4409,8 +4947,11 @@
       <c r="F167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11</v>
       </c>
@@ -4429,8 +4970,11 @@
       <c r="F168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11</v>
       </c>
@@ -4449,8 +4993,11 @@
       <c r="F169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11</v>
       </c>
@@ -4469,8 +5016,11 @@
       <c r="F170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>11</v>
       </c>
@@ -4489,8 +5039,11 @@
       <c r="F171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>21</v>
       </c>
@@ -4509,8 +5062,11 @@
       <c r="F172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>21</v>
       </c>
@@ -4529,8 +5085,11 @@
       <c r="F173">
         <v>9</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>21</v>
       </c>
@@ -4549,8 +5108,11 @@
       <c r="F174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>21</v>
       </c>
@@ -4569,8 +5131,11 @@
       <c r="F175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>21</v>
       </c>
@@ -4589,8 +5154,11 @@
       <c r="F176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>21</v>
       </c>
@@ -4609,8 +5177,11 @@
       <c r="F177">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>21</v>
       </c>
@@ -4629,8 +5200,11 @@
       <c r="F178">
         <v>9</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>21</v>
       </c>
@@ -4649,8 +5223,11 @@
       <c r="F179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>21</v>
       </c>
@@ -4669,8 +5246,11 @@
       <c r="F180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>22</v>
       </c>
@@ -4689,8 +5269,11 @@
       <c r="F181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>22</v>
       </c>
@@ -4709,8 +5292,11 @@
       <c r="F182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>22</v>
       </c>
@@ -4729,8 +5315,11 @@
       <c r="F183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>22</v>
       </c>
@@ -4749,8 +5338,11 @@
       <c r="F184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>22</v>
       </c>
@@ -4769,8 +5361,11 @@
       <c r="F185">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>22</v>
       </c>
@@ -4789,9 +5384,12 @@
       <c r="F186">
         <v>6</v>
       </c>
+      <c r="G186" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F186" xr:uid="{A3A422CF-A873-4D6B-A899-BD7B8E26E604}"/>
+  <autoFilter ref="A1:G1" xr:uid="{7D71F96B-D1E4-418B-873A-4FEB29D71F3F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>